--- a/mbs-perturbation/bottleneck/welm/smote/bloated_welm_lin_smote_results.xlsx
+++ b/mbs-perturbation/bottleneck/welm/smote/bloated_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8858447488584474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9118942731277533</v>
+        <v>0.9603960396039604</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8980477223427332</v>
+        <v>0.9216152019002376</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9531195574223952</v>
+        <v>0.9640099009900991</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8697674418604651</v>
+        <v>0.9390862944162437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8926014319809069</v>
+        <v>0.9438775510204082</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9588400761148342</v>
+        <v>0.983240431066518</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8791666666666667</v>
+        <v>0.8237885462555066</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9634703196347032</v>
+        <v>0.9689119170984456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9193899782135077</v>
+        <v>0.8904761904761904</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9543996050845366</v>
+        <v>0.9404888811760914</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.8932038834951457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8908296943231441</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8793103448275863</v>
+        <v>0.9154228855721394</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9403476971244954</v>
+        <v>0.9618964659034345</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8677685950413223</v>
+        <v>0.8986175115207373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9375</v>
+        <v>0.8944954128440367</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9012875536480687</v>
+        <v>0.8965517241379312</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9453793614219882</v>
+        <v>0.9570862786383917</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8738806389133635</v>
+        <v>0.8881081969092162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9240721907504534</v>
+        <v>0.9422593656936946</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8981274062025605</v>
+        <v>0.9135887106213815</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9504172594336499</v>
+        <v>0.9613443915549069</v>
       </c>
     </row>
   </sheetData>
